--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.04741066666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.142232</v>
+      </c>
+      <c r="I2">
+        <v>0.003188134523263584</v>
+      </c>
+      <c r="J2">
+        <v>0.003188134523263585</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.7004376666666666</v>
-      </c>
-      <c r="H2">
-        <v>2.101313</v>
-      </c>
-      <c r="I2">
-        <v>0.04511966030063898</v>
-      </c>
-      <c r="J2">
-        <v>0.04511966030063898</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9152923333333334</v>
+        <v>3.197736333333333</v>
       </c>
       <c r="N2">
-        <v>2.745877</v>
+        <v>9.593208999999998</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6411052262778889</v>
+        <v>0.1516068113875555</v>
       </c>
       <c r="R2">
-        <v>5.769947036501</v>
+        <v>1.364461302488</v>
       </c>
       <c r="S2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="T2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.711915</v>
       </c>
       <c r="I3">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J3">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9152923333333334</v>
+        <v>3.197736333333333</v>
       </c>
       <c r="N3">
-        <v>2.745877</v>
+        <v>9.593208999999998</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2172034471616667</v>
+        <v>0.7588388205816665</v>
       </c>
       <c r="R3">
-        <v>1.954831024455</v>
+        <v>6.829549385234999</v>
       </c>
       <c r="S3">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="T3">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>43.758776</v>
       </c>
       <c r="I4">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J4">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9152923333333334</v>
+        <v>3.197736333333333</v>
       </c>
       <c r="N4">
-        <v>2.745877</v>
+        <v>9.593208999999998</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>13.35069072961689</v>
+        <v>46.64300930579821</v>
       </c>
       <c r="R4">
-        <v>120.156216566552</v>
+        <v>419.7870837521839</v>
       </c>
       <c r="S4">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="T4">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
     </row>
   </sheetData>
